--- a/DataFiles_Excel/Maps/TopAwardRecipients/Top50DiscretionaryWorld/Top50_Recipients_Discretionary_International_CDC.xlsx
+++ b/DataFiles_Excel/Maps/TopAwardRecipients/Top50DiscretionaryWorld/Top50_Recipients_Discretionary_International_CDC.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jim.ide\Desktop\annual-report-html2excel\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\Engineering Projects\Annual Report\2016-html2excel\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -340,7 +340,7 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -476,8 +476,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -825,26 +840,29 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1202,6 +1220,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F60"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
@@ -1209,11 +1228,11 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="31.5" x14ac:dyDescent="0.5">
@@ -1221,8 +1240,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="6"/>
@@ -1242,7 +1261,7 @@
       <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
+      <c r="A6" s="7"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -1260,7 +1279,7 @@
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
+      <c r="A8" s="7"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -1268,36 +1287,36 @@
       <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
       <c r="E10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="7"/>
-    </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
@@ -1397,7 +1416,7 @@
         <v>53611375</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>26</v>
       </c>
@@ -1417,7 +1436,7 @@
         <v>52284405</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>27</v>
       </c>
@@ -1437,7 +1456,7 @@
         <v>44001362</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>30</v>
       </c>
@@ -1597,7 +1616,7 @@
         <v>26822082</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>48</v>
       </c>
@@ -1617,7 +1636,7 @@
         <v>19805908</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>49</v>
       </c>
@@ -1637,7 +1656,7 @@
         <v>19588463</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>50</v>
       </c>
@@ -1657,7 +1676,7 @@
         <v>19508837</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>53</v>
       </c>
@@ -1677,7 +1696,7 @@
         <v>19443004</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>54</v>
       </c>
@@ -1737,7 +1756,7 @@
         <v>16889063</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>60</v>
       </c>
@@ -1757,7 +1776,7 @@
         <v>16498141</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>61</v>
       </c>
@@ -1797,7 +1816,7 @@
         <v>15456939</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>65</v>
       </c>
@@ -1857,7 +1876,7 @@
         <v>13918423</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>68</v>
       </c>
@@ -1917,7 +1936,7 @@
         <v>12314138</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>71</v>
       </c>
@@ -1937,7 +1956,7 @@
         <v>12144776</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>72</v>
       </c>
@@ -1977,7 +1996,7 @@
         <v>11186838</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>74</v>
       </c>
@@ -1997,7 +2016,7 @@
         <v>10510908</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>75</v>
       </c>
@@ -2037,7 +2056,7 @@
         <v>9815238</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>80</v>
       </c>
@@ -2057,7 +2076,7 @@
         <v>9768233</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>81</v>
       </c>
@@ -2077,7 +2096,7 @@
         <v>9736533</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>82</v>
       </c>
@@ -2117,7 +2136,7 @@
         <v>9455801</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>85</v>
       </c>
@@ -2137,7 +2156,7 @@
         <v>9304165</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>86</v>
       </c>
@@ -2157,7 +2176,7 @@
         <v>9093167</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>89</v>
       </c>
@@ -2177,7 +2196,7 @@
         <v>8828124</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>91</v>
       </c>
@@ -2237,7 +2256,7 @@
         <v>8484737</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>97</v>
       </c>
@@ -2257,7 +2276,7 @@
         <v>8480269</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>99</v>
       </c>
